--- a/symbols.xlsx
+++ b/symbols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iontodirel\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DF293-BB8E-4A03-9A9A-BD2EECFCEE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3B71BB-F008-4157-8308-E1DF6310C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4253" yWindow="1402" windowWidth="21637" windowHeight="13853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -2592,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4802,19 +4802,37 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="A93" s="6">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>158</v>
@@ -4823,21 +4841,22 @@
         <v>156</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>290</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
-        <v>3</v>
+        <f t="shared" ref="A95:A161" si="2">A94+1</f>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>158</v>
@@ -4846,22 +4865,21 @@
         <v>156</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>537</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
-        <f t="shared" ref="A96:A162" si="2">A95+1</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>158</v>
@@ -4870,21 +4888,21 @@
         <v>156</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>291</v>
+        <v>538</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>162</v>
+        <v>485</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>158</v>
@@ -4893,21 +4911,21 @@
         <v>156</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>485</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>224</v>
+        <v>92</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>158</v>
@@ -4916,21 +4934,22 @@
         <v>156</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>486</v>
+        <v>418</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>487</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>158</v>
@@ -4939,22 +4958,22 @@
         <v>156</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>158</v>
@@ -4963,22 +4982,22 @@
         <v>156</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>158</v>
@@ -4987,22 +5006,22 @@
         <v>156</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>158</v>
@@ -5011,22 +5030,22 @@
         <v>156</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>158</v>
@@ -5035,22 +5054,22 @@
         <v>156</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>296</v>
+        <v>539</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>158</v>
@@ -5059,22 +5078,21 @@
         <v>156</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>168</v>
+        <v>98</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>158</v>
@@ -5083,21 +5101,21 @@
         <v>156</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>540</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
-      </c>
-      <c r="C106" s="4">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>158</v>
@@ -5106,21 +5124,22 @@
         <v>156</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>252</v>
+        <v>99</v>
+      </c>
+      <c r="C107" s="4">
+        <v>9</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>158</v>
@@ -5129,22 +5148,22 @@
         <v>156</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>299</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
-      </c>
-      <c r="C108" s="4">
-        <v>9</v>
+        <v>100</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>158</v>
@@ -5153,22 +5172,22 @@
         <v>156</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>541</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>158</v>
@@ -5177,22 +5196,22 @@
         <v>156</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>300</v>
+        <v>542</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>158</v>
@@ -5201,22 +5220,21 @@
         <v>156</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>158</v>
@@ -5225,21 +5243,22 @@
         <v>156</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>158</v>
@@ -5248,22 +5267,22 @@
         <v>156</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>158</v>
@@ -5272,22 +5291,22 @@
         <v>156</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>545</v>
+        <v>301</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>158</v>
@@ -5296,22 +5315,22 @@
         <v>156</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>301</v>
+        <v>546</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>158</v>
@@ -5320,22 +5339,22 @@
         <v>156</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>158</v>
@@ -5344,22 +5363,22 @@
         <v>156</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>547</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>158</v>
@@ -5368,22 +5387,22 @@
         <v>156</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>302</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>158</v>
@@ -5392,22 +5411,22 @@
         <v>156</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>548</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>158</v>
@@ -5416,22 +5435,22 @@
         <v>156</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>303</v>
+        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>158</v>
@@ -5440,22 +5459,22 @@
         <v>156</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>158</v>
@@ -5464,22 +5483,22 @@
         <v>156</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>550</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>158</v>
@@ -5488,22 +5507,22 @@
         <v>156</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>304</v>
+        <v>551</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>158</v>
@@ -5512,22 +5531,22 @@
         <v>156</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>551</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>158</v>
@@ -5536,22 +5555,22 @@
         <v>156</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>158</v>
@@ -5560,22 +5579,21 @@
         <v>156</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>158</v>
@@ -5584,21 +5602,22 @@
         <v>156</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>307</v>
+        <v>552</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>158</v>
@@ -5607,22 +5626,22 @@
         <v>156</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>552</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>158</v>
@@ -5631,22 +5650,22 @@
         <v>156</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>158</v>
@@ -5655,22 +5674,22 @@
         <v>156</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>158</v>
@@ -5679,22 +5698,22 @@
         <v>156</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>158</v>
@@ -5703,22 +5722,22 @@
         <v>156</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>158</v>
@@ -5727,22 +5746,22 @@
         <v>156</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>158</v>
@@ -5751,22 +5770,22 @@
         <v>156</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="6">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>158</v>
@@ -5775,22 +5794,22 @@
         <v>156</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>314</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="6">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>158</v>
@@ -5799,22 +5818,22 @@
         <v>156</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>553</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>158</v>
@@ -5823,22 +5842,21 @@
         <v>156</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>158</v>
@@ -5847,21 +5865,21 @@
         <v>156</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>158</v>
@@ -5870,21 +5888,22 @@
         <v>156</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
       <c r="B139" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>158</v>
@@ -5893,22 +5912,22 @@
         <v>156</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>318</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B140" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>158</v>
@@ -5917,49 +5936,48 @@
         <v>156</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>554</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>158</v>
+        <v>222</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>319</v>
+        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
-        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>155</v>
@@ -5968,42 +5986,43 @@
         <v>461</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
+        <f>A140+1</f>
         <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>190</v>
+      <c r="D143" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>461</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>489</v>
+        <v>555</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
-        <f>A141+1</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>66</v>
       </c>
       <c r="B144" t="s">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>158</v>
@@ -6012,22 +6031,22 @@
         <v>156</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B145" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>158</v>
@@ -6036,22 +6055,22 @@
         <v>156</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>158</v>
@@ -6060,22 +6079,22 @@
         <v>156</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B147" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>158</v>
@@ -6084,22 +6103,22 @@
         <v>156</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>558</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="6">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>158</v>
@@ -6108,22 +6127,22 @@
         <v>156</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>320</v>
+        <v>559</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="6">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B149" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>158</v>
@@ -6132,22 +6151,22 @@
         <v>156</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B150" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>158</v>
@@ -6156,22 +6175,22 @@
         <v>156</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>560</v>
+        <v>321</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>158</v>
@@ -6180,22 +6199,22 @@
         <v>156</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>321</v>
+        <v>561</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>158</v>
@@ -6204,22 +6223,22 @@
         <v>156</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>158</v>
@@ -6228,46 +6247,40 @@
         <v>156</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
         <f t="shared" si="2"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>158</v>
@@ -6279,31 +6292,37 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="6">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B156" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>156</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>158</v>
@@ -6312,22 +6331,22 @@
         <v>156</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="6">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B158" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>158</v>
@@ -6336,22 +6355,21 @@
         <v>156</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="6">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B159" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>158</v>
@@ -6360,21 +6378,22 @@
         <v>156</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>565</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="6">
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>158</v>
@@ -6383,22 +6402,22 @@
         <v>156</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>323</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="6">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>158</v>
@@ -6407,22 +6426,22 @@
         <v>156</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>566</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="6">
-        <f t="shared" si="2"/>
-        <v>84</v>
+        <f t="shared" ref="A162:A167" si="3">A161+1</f>
+        <v>85</v>
       </c>
       <c r="B162" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>158</v>
@@ -6431,22 +6450,22 @@
         <v>156</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="6">
-        <f t="shared" ref="A163:A168" si="3">A162+1</f>
-        <v>85</v>
+        <f t="shared" si="3"/>
+        <v>86</v>
       </c>
       <c r="B163" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>158</v>
@@ -6455,22 +6474,22 @@
         <v>156</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="6">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>158</v>
@@ -6479,22 +6498,22 @@
         <v>156</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="6">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B165" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>158</v>
@@ -6503,22 +6522,22 @@
         <v>156</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B166" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>158</v>
@@ -6527,22 +6546,22 @@
         <v>156</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B167" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>158</v>
@@ -6551,33 +6570,9 @@
         <v>156</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A168" s="6">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="B168" t="s">
-        <v>152</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H168" s="8" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6585,7 +6580,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C107" numberStoredAsText="1"/>
+    <ignoredError sqref="C106" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/symbols.xlsx
+++ b/symbols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iontodirel\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3B71BB-F008-4157-8308-E1DF6310C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69AD8B5-9C45-4510-9E83-580E11158BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4253" yWindow="1402" windowWidth="21637" windowHeight="13853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5243" yWindow="1890" windowWidth="21637" windowHeight="13853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="569">
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -1727,6 +1724,9 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2612,39 +2612,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -2653,22 +2653,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -2676,22 +2676,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -2700,22 +2700,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -2724,22 +2724,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -2748,22 +2748,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -2772,25 +2772,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G9" s="3">
         <v>7</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -2799,22 +2799,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -2823,22 +2823,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -2847,22 +2847,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -2871,22 +2871,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -2895,22 +2895,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -2919,22 +2919,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -2943,22 +2943,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -2967,22 +2967,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -2991,22 +2991,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -3015,22 +3015,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -3039,22 +3039,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -3063,22 +3063,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4">
         <v>3</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -3087,22 +3087,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4">
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -3111,22 +3111,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -3135,22 +3135,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4">
         <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -3159,22 +3159,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4">
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -3183,22 +3183,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -3207,22 +3207,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4">
         <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -3231,22 +3231,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -3255,22 +3255,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -3279,25 +3279,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G30" s="3">
         <v>10</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -3306,22 +3306,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -3330,25 +3330,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G32" s="3">
         <v>9</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -3357,22 +3357,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -3381,22 +3381,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -3405,22 +3405,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -3429,22 +3429,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -3453,22 +3453,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -3476,22 +3476,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -3500,22 +3500,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -3524,22 +3524,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -3548,22 +3548,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -3572,22 +3572,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -3595,22 +3595,22 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -3619,22 +3619,22 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -3643,22 +3643,22 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -3667,22 +3667,22 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -3691,25 +3691,25 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G47" s="3">
         <v>11</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -3718,22 +3718,22 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -3742,16 +3742,16 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -3760,25 +3760,25 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G50" s="3">
         <v>13</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -3787,22 +3787,22 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -3811,22 +3811,22 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -3835,22 +3835,22 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -3859,22 +3859,22 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -3883,22 +3883,22 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -3907,25 +3907,25 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G56" s="3">
         <v>6</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -3934,25 +3934,25 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G57" s="3">
         <v>5</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -3961,22 +3961,22 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -3985,22 +3985,22 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -4009,22 +4009,22 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -4033,22 +4033,22 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -4057,22 +4057,22 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -4081,22 +4081,22 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -4105,22 +4105,22 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -4129,25 +4129,25 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -4156,25 +4156,25 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G66" s="3">
         <v>4</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -4183,22 +4183,22 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -4207,22 +4207,22 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -4231,22 +4231,22 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -4255,25 +4255,25 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G70" s="3">
         <v>3</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -4282,22 +4282,22 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -4306,22 +4306,22 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
@@ -4330,22 +4330,22 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -4354,25 +4354,25 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G74" s="3">
         <v>12</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -4381,25 +4381,25 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G75" s="3">
         <v>14</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -4408,22 +4408,22 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -4432,22 +4432,22 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
@@ -4456,22 +4456,22 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
@@ -4480,22 +4480,22 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
@@ -4504,22 +4504,22 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
@@ -4528,22 +4528,22 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
@@ -4552,22 +4552,22 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
@@ -4576,25 +4576,25 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G83" s="3">
         <v>8</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -4603,22 +4603,22 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -4627,22 +4627,22 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
@@ -4651,25 +4651,25 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G86" s="3">
         <v>15</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
@@ -4678,22 +4678,22 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -4702,22 +4702,22 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -4726,22 +4726,22 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
@@ -4749,22 +4749,22 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
@@ -4772,16 +4772,16 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
@@ -4789,16 +4789,16 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
@@ -4806,22 +4806,22 @@
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
@@ -4829,22 +4829,22 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
@@ -4853,22 +4853,22 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -4876,22 +4876,22 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -4899,22 +4899,22 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
+        <v>484</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="H97" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -4922,22 +4922,22 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
@@ -4946,22 +4946,22 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -4970,22 +4970,22 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -4994,22 +4994,22 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -5018,22 +5018,22 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -5042,22 +5042,22 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -5066,22 +5066,22 @@
         <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
@@ -5089,22 +5089,22 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
@@ -5112,22 +5112,22 @@
         <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
@@ -5136,22 +5136,22 @@
         <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="4">
         <v>9</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
@@ -5160,22 +5160,22 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
@@ -5184,22 +5184,22 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -5208,22 +5208,22 @@
         <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
@@ -5231,22 +5231,22 @@
         <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
@@ -5255,22 +5255,22 @@
         <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
@@ -5279,22 +5279,22 @@
         <v>32</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
@@ -5303,22 +5303,22 @@
         <v>33</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
@@ -5327,22 +5327,22 @@
         <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
@@ -5351,22 +5351,22 @@
         <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
@@ -5375,22 +5375,22 @@
         <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
@@ -5399,22 +5399,22 @@
         <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
@@ -5423,22 +5423,22 @@
         <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
@@ -5447,22 +5447,22 @@
         <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
@@ -5471,22 +5471,22 @@
         <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
@@ -5495,22 +5495,22 @@
         <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
@@ -5519,22 +5519,22 @@
         <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
@@ -5543,22 +5543,22 @@
         <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
@@ -5567,22 +5567,22 @@
         <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
@@ -5590,22 +5590,22 @@
         <v>46</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
@@ -5614,22 +5614,22 @@
         <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
@@ -5638,22 +5638,22 @@
         <v>48</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
@@ -5662,22 +5662,22 @@
         <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
@@ -5686,22 +5686,22 @@
         <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
@@ -5710,22 +5710,22 @@
         <v>51</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
@@ -5734,22 +5734,22 @@
         <v>52</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
@@ -5758,22 +5758,22 @@
         <v>53</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
@@ -5782,22 +5782,22 @@
         <v>54</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
@@ -5806,22 +5806,22 @@
         <v>55</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
@@ -5830,22 +5830,22 @@
         <v>56</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
@@ -5853,22 +5853,22 @@
         <v>59</v>
       </c>
       <c r="B137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
@@ -5876,22 +5876,22 @@
         <v>62</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
@@ -5900,22 +5900,22 @@
         <v>63</v>
       </c>
       <c r="B139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
@@ -5924,22 +5924,22 @@
         <v>64</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
@@ -5948,22 +5948,22 @@
         <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
@@ -5971,22 +5971,22 @@
         <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
@@ -5995,22 +5995,22 @@
         <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
@@ -6019,22 +6019,22 @@
         <v>66</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
@@ -6043,22 +6043,22 @@
         <v>67</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
@@ -6067,22 +6067,22 @@
         <v>68</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
@@ -6091,22 +6091,22 @@
         <v>69</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
@@ -6115,22 +6115,22 @@
         <v>70</v>
       </c>
       <c r="B148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
@@ -6139,22 +6139,22 @@
         <v>71</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
@@ -6163,22 +6163,22 @@
         <v>72</v>
       </c>
       <c r="B150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
@@ -6187,22 +6187,22 @@
         <v>73</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
@@ -6211,22 +6211,22 @@
         <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
@@ -6235,22 +6235,22 @@
         <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
@@ -6259,16 +6259,16 @@
         <v>76</v>
       </c>
       <c r="B154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
@@ -6277,16 +6277,16 @@
         <v>77</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
@@ -6295,22 +6295,22 @@
         <v>78</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
@@ -6319,22 +6319,22 @@
         <v>79</v>
       </c>
       <c r="B157" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
@@ -6343,22 +6343,22 @@
         <v>80</v>
       </c>
       <c r="B158" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
@@ -6366,22 +6366,22 @@
         <v>82</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
@@ -6390,22 +6390,22 @@
         <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
@@ -6414,22 +6414,22 @@
         <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
@@ -6438,22 +6438,22 @@
         <v>85</v>
       </c>
       <c r="B162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
@@ -6462,22 +6462,22 @@
         <v>86</v>
       </c>
       <c r="B163" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
@@ -6486,22 +6486,22 @@
         <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
@@ -6510,22 +6510,22 @@
         <v>88</v>
       </c>
       <c r="B165" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
@@ -6534,22 +6534,22 @@
         <v>89</v>
       </c>
       <c r="B166" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
@@ -6558,22 +6558,22 @@
         <v>90</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/symbols.xlsx
+++ b/symbols.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iontodirel\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itodirel\Downloads\1010101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69AD8B5-9C45-4510-9E83-580E11158BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE90FFB-3DA1-4AE7-883A-CE15F322869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5243" yWindow="1890" windowWidth="21637" windowHeight="13853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="572">
   <si>
     <t>table</t>
   </si>
@@ -1727,6 +1740,15 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>shelter2</t>
+  </si>
+  <si>
+    <t>SAA</t>
+  </si>
+  <si>
+    <t>SAR</t>
   </si>
 </sst>
 </file>
@@ -2594,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2606,7 +2628,7 @@
     <col min="4" max="4" width="9.06640625" style="3"/>
     <col min="5" max="5" width="15.1328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.1328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" style="3" customWidth="1"/>
     <col min="8" max="8" width="81.19921875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5960,7 +5982,7 @@
         <v>154</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>460</v>
+        <v>570</v>
       </c>
       <c r="H141" s="8" t="s">
         <v>487</v>
@@ -5983,7 +6005,7 @@
         <v>154</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>460</v>
+        <v>571</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>488</v>
@@ -6534,7 +6556,7 @@
         <v>89</v>
       </c>
       <c r="B166" t="s">
-        <v>84</v>
+        <v>569</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>234</v>
@@ -6583,4 +6605,10 @@
     <ignoredError sqref="C106" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/symbols.xlsx
+++ b/symbols.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itodirel\Downloads\1010101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iontodirel\Dropbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE90FFB-3DA1-4AE7-883A-CE15F322869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2895ABC1-3694-4DD9-8B9F-428E6C0616BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="5468" windowWidth="19185" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="577">
   <si>
     <t>table</t>
   </si>
@@ -1743,6 +1730,21 @@
   </si>
   <si>
     <t>shelter2</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>aprs-symbols-24-0.png</t>
+  </si>
+  <si>
+    <t>aprs-symbols-24-1.png</t>
   </si>
   <si>
     <t>SAA</t>
@@ -2614,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2628,11 +2630,11 @@
     <col min="4" max="4" width="9.06640625" style="3"/>
     <col min="5" max="5" width="15.1328125" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.1328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="81.19921875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="47.06640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>237</v>
       </c>
@@ -2657,20 +2659,33 @@
       <c r="H1" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -2692,8 +2707,17 @@
       <c r="H4" s="8" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>573</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2715,8 +2739,17 @@
       <c r="H5" s="8" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>573</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>4</v>
@@ -2739,8 +2772,17 @@
       <c r="H6" s="8" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2763,8 +2805,17 @@
       <c r="H7" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>573</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2787,8 +2838,17 @@
       <c r="H8" s="8" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>573</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2814,8 +2874,17 @@
       <c r="H9" s="8" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>573</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2838,8 +2907,17 @@
       <c r="H10" s="8" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>573</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2862,8 +2940,17 @@
       <c r="H11" s="8" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>573</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2886,8 +2973,17 @@
       <c r="H12" s="8" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>573</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2910,8 +3006,17 @@
       <c r="H13" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>573</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2934,8 +3039,17 @@
       <c r="H14" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>573</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2958,8 +3072,17 @@
       <c r="H15" s="8" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>573</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2982,8 +3105,17 @@
       <c r="H16" s="8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>573</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3006,8 +3138,17 @@
       <c r="H17" s="8" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>573</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3030,8 +3171,17 @@
       <c r="H18" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>573</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3054,8 +3204,17 @@
       <c r="H19" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>573</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3078,8 +3237,17 @@
       <c r="H20" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>573</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3102,8 +3270,17 @@
       <c r="H21" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>573</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3126,8 +3303,17 @@
       <c r="H22" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>573</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3150,8 +3336,17 @@
       <c r="H23" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>573</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3174,8 +3369,17 @@
       <c r="H24" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>573</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3198,8 +3402,17 @@
       <c r="H25" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>573</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3222,8 +3435,17 @@
       <c r="H26" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>573</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3246,8 +3468,17 @@
       <c r="H27" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>573</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3270,8 +3501,17 @@
       <c r="H28" s="8" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>573</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3294,8 +3534,17 @@
       <c r="H29" s="8" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>573</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3321,8 +3570,17 @@
       <c r="H30" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" t="s">
+        <v>573</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3345,8 +3603,17 @@
       <c r="H31" s="8" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" t="s">
+        <v>573</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3372,8 +3639,17 @@
       <c r="H32" s="8" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>573</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3396,8 +3672,17 @@
       <c r="H33" s="8" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" t="s">
+        <v>573</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3420,8 +3705,17 @@
       <c r="H34" s="8" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" t="s">
+        <v>573</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3444,8 +3738,17 @@
       <c r="H35" s="8" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" t="s">
+        <v>573</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3468,8 +3771,17 @@
       <c r="H36" s="8" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" t="s">
+        <v>573</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3</v>
+      </c>
+      <c r="K36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3492,8 +3804,17 @@
       <c r="H37" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" t="s">
+        <v>573</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -3515,8 +3836,17 @@
       <c r="H38" s="8" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" t="s">
+        <v>573</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3</v>
+      </c>
+      <c r="K38" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3539,8 +3869,17 @@
       <c r="H39" s="8" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" t="s">
+        <v>573</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3</v>
+      </c>
+      <c r="K39" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3563,8 +3902,17 @@
       <c r="H40" s="8" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" t="s">
+        <v>573</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3</v>
+      </c>
+      <c r="K40" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3587,8 +3935,17 @@
       <c r="H41" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" t="s">
+        <v>573</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3611,8 +3968,17 @@
       <c r="H42" s="8" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I42" t="s">
+        <v>573</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>43</v>
       </c>
@@ -3634,8 +4000,17 @@
       <c r="H43" s="8" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" t="s">
+        <v>573</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3658,8 +4033,17 @@
       <c r="H44" s="8" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>573</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3682,8 +4066,17 @@
       <c r="H45" s="8" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>573</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3706,8 +4099,17 @@
       <c r="H46" s="8" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>573</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3733,8 +4135,17 @@
       <c r="H47" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" t="s">
+        <v>573</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3757,8 +4168,17 @@
       <c r="H48" s="8" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I48" t="s">
+        <v>573</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3775,8 +4195,10 @@
       <c r="E49" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3802,8 +4224,17 @@
       <c r="H50" s="8" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I50" t="s">
+        <v>573</v>
+      </c>
+      <c r="J50" s="3">
+        <v>4</v>
+      </c>
+      <c r="K50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3826,8 +4257,17 @@
       <c r="H51" s="8" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I51" t="s">
+        <v>573</v>
+      </c>
+      <c r="J51" s="3">
+        <v>4</v>
+      </c>
+      <c r="K51" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3850,8 +4290,17 @@
       <c r="H52" s="8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I52" t="s">
+        <v>573</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3874,8 +4323,17 @@
       <c r="H53" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I53" t="s">
+        <v>573</v>
+      </c>
+      <c r="J53" s="3">
+        <v>4</v>
+      </c>
+      <c r="K53" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3898,8 +4356,17 @@
       <c r="H54" s="8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I54" t="s">
+        <v>573</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3922,8 +4389,17 @@
       <c r="H55" s="8" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I55" t="s">
+        <v>573</v>
+      </c>
+      <c r="J55" s="3">
+        <v>4</v>
+      </c>
+      <c r="K55" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3949,8 +4425,17 @@
       <c r="H56" s="8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I56" t="s">
+        <v>573</v>
+      </c>
+      <c r="J56" s="3">
+        <v>4</v>
+      </c>
+      <c r="K56" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3976,8 +4461,17 @@
       <c r="H57" s="8" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I57" t="s">
+        <v>573</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4000,8 +4494,17 @@
       <c r="H58" s="8" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I58" t="s">
+        <v>573</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4024,8 +4527,17 @@
       <c r="H59" s="8" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I59" t="s">
+        <v>573</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4048,8 +4560,17 @@
       <c r="H60" s="8" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I60" t="s">
+        <v>573</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4072,8 +4593,17 @@
       <c r="H61" s="8" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I61" t="s">
+        <v>573</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4</v>
+      </c>
+      <c r="K61" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4096,8 +4626,17 @@
       <c r="H62" s="8" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I62" t="s">
+        <v>573</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4120,8 +4659,17 @@
       <c r="H63" s="8" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I63" t="s">
+        <v>573</v>
+      </c>
+      <c r="J63" s="3">
+        <v>4</v>
+      </c>
+      <c r="K63" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4144,8 +4692,17 @@
       <c r="H64" s="8" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I64" t="s">
+        <v>573</v>
+      </c>
+      <c r="J64" s="3">
+        <v>4</v>
+      </c>
+      <c r="K64" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4171,8 +4728,17 @@
       <c r="H65" s="8" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I65" t="s">
+        <v>573</v>
+      </c>
+      <c r="J65" s="3">
+        <v>5</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -4198,8 +4764,17 @@
       <c r="H66" s="8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I66" t="s">
+        <v>573</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -4222,8 +4797,17 @@
       <c r="H67" s="8" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I67" t="s">
+        <v>573</v>
+      </c>
+      <c r="J67" s="3">
+        <v>5</v>
+      </c>
+      <c r="K67" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -4246,8 +4830,17 @@
       <c r="H68" s="8" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I68" t="s">
+        <v>573</v>
+      </c>
+      <c r="J68" s="3">
+        <v>5</v>
+      </c>
+      <c r="K68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -4270,8 +4863,17 @@
       <c r="H69" s="8" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I69" t="s">
+        <v>573</v>
+      </c>
+      <c r="J69" s="3">
+        <v>5</v>
+      </c>
+      <c r="K69" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <f t="shared" ref="A70:A89" si="1">A69+1</f>
         <v>70</v>
@@ -4297,8 +4899,17 @@
       <c r="H70" s="8" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I70" t="s">
+        <v>573</v>
+      </c>
+      <c r="J70" s="3">
+        <v>5</v>
+      </c>
+      <c r="K70" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4321,8 +4932,17 @@
       <c r="H71" s="8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I71" t="s">
+        <v>573</v>
+      </c>
+      <c r="J71" s="3">
+        <v>5</v>
+      </c>
+      <c r="K71" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4345,8 +4965,17 @@
       <c r="H72" s="8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I72" t="s">
+        <v>573</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4369,8 +4998,17 @@
       <c r="H73" s="8" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I73" t="s">
+        <v>573</v>
+      </c>
+      <c r="J73" s="3">
+        <v>5</v>
+      </c>
+      <c r="K73" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4396,8 +5034,17 @@
       <c r="H74" s="8" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I74" t="s">
+        <v>573</v>
+      </c>
+      <c r="J74" s="3">
+        <v>5</v>
+      </c>
+      <c r="K74" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4423,8 +5070,17 @@
       <c r="H75" s="8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I75" t="s">
+        <v>573</v>
+      </c>
+      <c r="J75" s="3">
+        <v>5</v>
+      </c>
+      <c r="K75" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4447,8 +5103,17 @@
       <c r="H76" s="8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I76" t="s">
+        <v>573</v>
+      </c>
+      <c r="J76" s="3">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4471,8 +5136,17 @@
       <c r="H77" s="8" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I77" t="s">
+        <v>573</v>
+      </c>
+      <c r="J77" s="3">
+        <v>5</v>
+      </c>
+      <c r="K77" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4495,8 +5169,17 @@
       <c r="H78" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I78" t="s">
+        <v>573</v>
+      </c>
+      <c r="J78" s="3">
+        <v>5</v>
+      </c>
+      <c r="K78" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4519,8 +5202,17 @@
       <c r="H79" s="8" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I79" t="s">
+        <v>573</v>
+      </c>
+      <c r="J79" s="3">
+        <v>5</v>
+      </c>
+      <c r="K79" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4543,8 +5235,17 @@
       <c r="H80" s="8" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I80" t="s">
+        <v>573</v>
+      </c>
+      <c r="J80" s="3">
+        <v>5</v>
+      </c>
+      <c r="K80" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4567,8 +5268,17 @@
       <c r="H81" s="8" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I81" t="s">
+        <v>573</v>
+      </c>
+      <c r="J81" s="3">
+        <v>6</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4591,8 +5301,17 @@
       <c r="H82" s="8" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I82" t="s">
+        <v>573</v>
+      </c>
+      <c r="J82" s="3">
+        <v>6</v>
+      </c>
+      <c r="K82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4618,8 +5337,17 @@
       <c r="H83" s="8" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I83" t="s">
+        <v>573</v>
+      </c>
+      <c r="J83" s="3">
+        <v>6</v>
+      </c>
+      <c r="K83" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4642,8 +5370,17 @@
       <c r="H84" s="8" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I84" t="s">
+        <v>573</v>
+      </c>
+      <c r="J84" s="3">
+        <v>6</v>
+      </c>
+      <c r="K84" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4666,8 +5403,17 @@
       <c r="H85" s="8" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I85" t="s">
+        <v>573</v>
+      </c>
+      <c r="J85" s="3">
+        <v>6</v>
+      </c>
+      <c r="K85" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4693,8 +5439,17 @@
       <c r="H86" s="8" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I86" t="s">
+        <v>573</v>
+      </c>
+      <c r="J86" s="3">
+        <v>6</v>
+      </c>
+      <c r="K86" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4717,8 +5472,17 @@
       <c r="H87" s="8" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I87" t="s">
+        <v>573</v>
+      </c>
+      <c r="J87" s="3">
+        <v>6</v>
+      </c>
+      <c r="K87" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4741,8 +5505,17 @@
       <c r="H88" s="8" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I88" t="s">
+        <v>573</v>
+      </c>
+      <c r="J88" s="3">
+        <v>6</v>
+      </c>
+      <c r="K88" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4765,8 +5538,17 @@
       <c r="H89" s="8" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I89" t="s">
+        <v>573</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6</v>
+      </c>
+      <c r="K89" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
         <v>91</v>
       </c>
@@ -4788,8 +5570,17 @@
       <c r="H90" s="8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I90" t="s">
+        <v>573</v>
+      </c>
+      <c r="J90" s="3">
+        <v>6</v>
+      </c>
+      <c r="K90" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
         <v>92</v>
       </c>
@@ -4805,8 +5596,17 @@
       <c r="E91" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I91" t="s">
+        <v>573</v>
+      </c>
+      <c r="J91" s="3">
+        <v>6</v>
+      </c>
+      <c r="K91" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
         <v>94</v>
       </c>
@@ -4822,8 +5622,17 @@
       <c r="E92" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I92" t="s">
+        <v>573</v>
+      </c>
+      <c r="J92" s="3">
+        <v>6</v>
+      </c>
+      <c r="K92" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -4845,8 +5654,10 @@
       <c r="H93" s="8" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>3</v>
       </c>
@@ -4868,8 +5679,17 @@
       <c r="H94" s="8" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I94" t="s">
+        <v>574</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1</v>
+      </c>
+      <c r="K94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
         <f t="shared" ref="A95:A161" si="2">A94+1</f>
         <v>4</v>
@@ -4892,8 +5712,17 @@
       <c r="H95" s="8" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I95" t="s">
+        <v>574</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1</v>
+      </c>
+      <c r="K95" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>6</v>
       </c>
@@ -4915,8 +5744,17 @@
       <c r="H96" s="8" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I96" t="s">
+        <v>574</v>
+      </c>
+      <c r="J96" s="3">
+        <v>1</v>
+      </c>
+      <c r="K96" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>7</v>
       </c>
@@ -4938,8 +5776,17 @@
       <c r="H97" s="8" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I97" t="s">
+        <v>574</v>
+      </c>
+      <c r="J97" s="3">
+        <v>1</v>
+      </c>
+      <c r="K97" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>8</v>
       </c>
@@ -4961,8 +5808,17 @@
       <c r="H98" s="8" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I98" t="s">
+        <v>574</v>
+      </c>
+      <c r="J98" s="3">
+        <v>1</v>
+      </c>
+      <c r="K98" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4985,8 +5841,17 @@
       <c r="H99" s="8" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I99" t="s">
+        <v>574</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -5009,8 +5874,17 @@
       <c r="H100" s="8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I100" t="s">
+        <v>574</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1</v>
+      </c>
+      <c r="K100" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -5033,8 +5907,17 @@
       <c r="H101" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I101" t="s">
+        <v>574</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1</v>
+      </c>
+      <c r="K101" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5057,8 +5940,17 @@
       <c r="H102" s="8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I102" t="s">
+        <v>574</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -5081,8 +5973,17 @@
       <c r="H103" s="8" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I103" t="s">
+        <v>574</v>
+      </c>
+      <c r="J103" s="3">
+        <v>1</v>
+      </c>
+      <c r="K103" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -5105,8 +6006,17 @@
       <c r="H104" s="8" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I104" t="s">
+        <v>574</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
         <v>16</v>
       </c>
@@ -5128,8 +6038,17 @@
       <c r="H105" s="8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I105" t="s">
+        <v>574</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1</v>
+      </c>
+      <c r="K105" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
         <v>24</v>
       </c>
@@ -5151,8 +6070,17 @@
       <c r="H106" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I106" t="s">
+        <v>574</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1</v>
+      </c>
+      <c r="K106" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -5175,8 +6103,10 @@
       <c r="H107" s="8" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -5199,8 +6129,17 @@
       <c r="H108" s="8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I108" t="s">
+        <v>574</v>
+      </c>
+      <c r="J108" s="3">
+        <v>2</v>
+      </c>
+      <c r="K108" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -5223,8 +6162,10 @@
       <c r="H109" s="8" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -5247,8 +6188,17 @@
       <c r="H110" s="8" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I110" t="s">
+        <v>574</v>
+      </c>
+      <c r="J110" s="3">
+        <v>2</v>
+      </c>
+      <c r="K110" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>30</v>
       </c>
@@ -5270,8 +6220,17 @@
       <c r="H111" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I111" t="s">
+        <v>574</v>
+      </c>
+      <c r="J111" s="3">
+        <v>2</v>
+      </c>
+      <c r="K111" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -5294,8 +6253,17 @@
       <c r="H112" s="8" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I112" t="s">
+        <v>574</v>
+      </c>
+      <c r="J112" s="3">
+        <v>2</v>
+      </c>
+      <c r="K112" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -5318,8 +6286,17 @@
       <c r="H113" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I113" t="s">
+        <v>574</v>
+      </c>
+      <c r="J113" s="3">
+        <v>2</v>
+      </c>
+      <c r="K113" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -5342,8 +6319,17 @@
       <c r="H114" s="8" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I114" t="s">
+        <v>574</v>
+      </c>
+      <c r="J114" s="3">
+        <v>2</v>
+      </c>
+      <c r="K114" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -5366,8 +6352,17 @@
       <c r="H115" s="8" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I115" t="s">
+        <v>574</v>
+      </c>
+      <c r="J115" s="3">
+        <v>3</v>
+      </c>
+      <c r="K115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -5390,8 +6385,17 @@
       <c r="H116" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I116" t="s">
+        <v>574</v>
+      </c>
+      <c r="J116" s="3">
+        <v>3</v>
+      </c>
+      <c r="K116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -5414,8 +6418,10 @@
       <c r="H117" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -5438,8 +6444,17 @@
       <c r="H118" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I118" t="s">
+        <v>574</v>
+      </c>
+      <c r="J118" s="3">
+        <v>3</v>
+      </c>
+      <c r="K118" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -5462,8 +6477,17 @@
       <c r="H119" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I119" t="s">
+        <v>574</v>
+      </c>
+      <c r="J119" s="3">
+        <v>3</v>
+      </c>
+      <c r="K119" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -5486,8 +6510,17 @@
       <c r="H120" s="8" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I120" t="s">
+        <v>574</v>
+      </c>
+      <c r="J120" s="3">
+        <v>3</v>
+      </c>
+      <c r="K120" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -5510,8 +6543,17 @@
       <c r="H121" s="8" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I121" t="s">
+        <v>574</v>
+      </c>
+      <c r="J121" s="3">
+        <v>3</v>
+      </c>
+      <c r="K121" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -5534,8 +6576,17 @@
       <c r="H122" s="8" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I122" t="s">
+        <v>574</v>
+      </c>
+      <c r="J122" s="3">
+        <v>3</v>
+      </c>
+      <c r="K122" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -5558,8 +6609,17 @@
       <c r="H123" s="8" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I123" t="s">
+        <v>574</v>
+      </c>
+      <c r="J123" s="3">
+        <v>3</v>
+      </c>
+      <c r="K123" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -5582,8 +6642,17 @@
       <c r="H124" s="8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I124" t="s">
+        <v>574</v>
+      </c>
+      <c r="J124" s="3">
+        <v>3</v>
+      </c>
+      <c r="K124" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -5606,8 +6675,17 @@
       <c r="H125" s="8" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I125" t="s">
+        <v>574</v>
+      </c>
+      <c r="J125" s="3">
+        <v>3</v>
+      </c>
+      <c r="K125" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
         <v>46</v>
       </c>
@@ -5629,8 +6707,17 @@
       <c r="H126" s="8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I126" t="s">
+        <v>574</v>
+      </c>
+      <c r="J126" s="3">
+        <v>3</v>
+      </c>
+      <c r="K126" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5653,8 +6740,17 @@
       <c r="H127" s="8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I127" t="s">
+        <v>574</v>
+      </c>
+      <c r="J127" s="3">
+        <v>3</v>
+      </c>
+      <c r="K127" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -5677,8 +6773,17 @@
       <c r="H128" s="8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I128" t="s">
+        <v>574</v>
+      </c>
+      <c r="J128" s="3">
+        <v>3</v>
+      </c>
+      <c r="K128" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5701,8 +6806,17 @@
       <c r="H129" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I129" t="s">
+        <v>574</v>
+      </c>
+      <c r="J129" s="3">
+        <v>3</v>
+      </c>
+      <c r="K129" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -5725,8 +6839,17 @@
       <c r="H130" s="8" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I130" t="s">
+        <v>574</v>
+      </c>
+      <c r="J130" s="3">
+        <v>4</v>
+      </c>
+      <c r="K130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5749,8 +6872,17 @@
       <c r="H131" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I131" t="s">
+        <v>574</v>
+      </c>
+      <c r="J131" s="3">
+        <v>4</v>
+      </c>
+      <c r="K131" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -5773,8 +6905,17 @@
       <c r="H132" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I132" t="s">
+        <v>574</v>
+      </c>
+      <c r="J132" s="3">
+        <v>4</v>
+      </c>
+      <c r="K132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -5797,8 +6938,17 @@
       <c r="H133" s="8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I133" t="s">
+        <v>574</v>
+      </c>
+      <c r="J133" s="3">
+        <v>4</v>
+      </c>
+      <c r="K133" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" s="6">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -5821,8 +6971,17 @@
       <c r="H134" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I134" t="s">
+        <v>574</v>
+      </c>
+      <c r="J134" s="3">
+        <v>4</v>
+      </c>
+      <c r="K134" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" s="6">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -5845,8 +7004,17 @@
       <c r="H135" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I135" t="s">
+        <v>574</v>
+      </c>
+      <c r="J135" s="3">
+        <v>4</v>
+      </c>
+      <c r="K135" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -5869,8 +7037,17 @@
       <c r="H136" s="8" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I136" t="s">
+        <v>574</v>
+      </c>
+      <c r="J136" s="3">
+        <v>4</v>
+      </c>
+      <c r="K136" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <v>59</v>
       </c>
@@ -5892,8 +7069,17 @@
       <c r="H137" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I137" t="s">
+        <v>574</v>
+      </c>
+      <c r="J137" s="3">
+        <v>4</v>
+      </c>
+      <c r="K137" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
         <v>62</v>
       </c>
@@ -5915,8 +7101,17 @@
       <c r="H138" s="8" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I138" t="s">
+        <v>574</v>
+      </c>
+      <c r="J138" s="3">
+        <v>4</v>
+      </c>
+      <c r="K138" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -5939,8 +7134,17 @@
       <c r="H139" s="8" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I139" t="s">
+        <v>574</v>
+      </c>
+      <c r="J139" s="3">
+        <v>4</v>
+      </c>
+      <c r="K139" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -5963,8 +7167,17 @@
       <c r="H140" s="8" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I140" t="s">
+        <v>574</v>
+      </c>
+      <c r="J140" s="3">
+        <v>4</v>
+      </c>
+      <c r="K140" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -5982,13 +7195,22 @@
         <v>154</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H141" s="8" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I141" t="s">
+        <v>574</v>
+      </c>
+      <c r="J141" s="3">
+        <v>4</v>
+      </c>
+      <c r="K141" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
         <v>65</v>
       </c>
@@ -6005,13 +7227,15 @@
         <v>154</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
         <f>A140+1</f>
         <v>65</v>
@@ -6034,8 +7258,10 @@
       <c r="H143" s="8" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -6058,8 +7284,17 @@
       <c r="H144" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I144" t="s">
+        <v>574</v>
+      </c>
+      <c r="J144" s="3">
+        <v>5</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -6082,8 +7317,17 @@
       <c r="H145" s="8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I145" t="s">
+        <v>574</v>
+      </c>
+      <c r="J145" s="3">
+        <v>5</v>
+      </c>
+      <c r="K145" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -6106,8 +7350,17 @@
       <c r="H146" s="8" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I146" t="s">
+        <v>574</v>
+      </c>
+      <c r="J146" s="3">
+        <v>5</v>
+      </c>
+      <c r="K146" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -6130,8 +7383,17 @@
       <c r="H147" s="8" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I147" t="s">
+        <v>574</v>
+      </c>
+      <c r="J147" s="3">
+        <v>5</v>
+      </c>
+      <c r="K147" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="6">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -6154,8 +7416,17 @@
       <c r="H148" s="8" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I148" t="s">
+        <v>574</v>
+      </c>
+      <c r="J148" s="3">
+        <v>5</v>
+      </c>
+      <c r="K148" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="6">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -6178,8 +7449,17 @@
       <c r="H149" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I149" t="s">
+        <v>574</v>
+      </c>
+      <c r="J149" s="3">
+        <v>5</v>
+      </c>
+      <c r="K149" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -6202,8 +7482,17 @@
       <c r="H150" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I150" t="s">
+        <v>574</v>
+      </c>
+      <c r="J150" s="3">
+        <v>5</v>
+      </c>
+      <c r="K150" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -6226,8 +7515,17 @@
       <c r="H151" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I151" t="s">
+        <v>574</v>
+      </c>
+      <c r="J151" s="3">
+        <v>5</v>
+      </c>
+      <c r="K151" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -6250,8 +7548,17 @@
       <c r="H152" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I152" t="s">
+        <v>574</v>
+      </c>
+      <c r="J152" s="3">
+        <v>5</v>
+      </c>
+      <c r="K152" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -6274,8 +7581,17 @@
       <c r="H153" s="8" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I153" t="s">
+        <v>574</v>
+      </c>
+      <c r="J153" s="3">
+        <v>5</v>
+      </c>
+      <c r="K153" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -6292,8 +7608,17 @@
       <c r="E154" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I154" t="s">
+        <v>574</v>
+      </c>
+      <c r="J154" s="3">
+        <v>5</v>
+      </c>
+      <c r="K154" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -6310,8 +7635,10 @@
       <c r="E155" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="6">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -6334,8 +7661,17 @@
       <c r="H156" s="8" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I156" t="s">
+        <v>574</v>
+      </c>
+      <c r="J156" s="3">
+        <v>5</v>
+      </c>
+      <c r="K156" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -6358,8 +7694,17 @@
       <c r="H157" s="8" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I157" t="s">
+        <v>574</v>
+      </c>
+      <c r="J157" s="3">
+        <v>5</v>
+      </c>
+      <c r="K157" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -6382,8 +7727,17 @@
       <c r="H158" s="8" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I158" t="s">
+        <v>574</v>
+      </c>
+      <c r="J158" s="3">
+        <v>5</v>
+      </c>
+      <c r="K158" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="6">
         <v>82</v>
       </c>
@@ -6405,8 +7759,17 @@
       <c r="H159" s="8" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I159" t="s">
+        <v>574</v>
+      </c>
+      <c r="J159" s="3">
+        <v>5</v>
+      </c>
+      <c r="K159" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -6429,8 +7792,17 @@
       <c r="H160" s="8" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I160" t="s">
+        <v>574</v>
+      </c>
+      <c r="J160" s="3">
+        <v>6</v>
+      </c>
+      <c r="K160" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -6453,8 +7825,17 @@
       <c r="H161" s="8" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I161" t="s">
+        <v>574</v>
+      </c>
+      <c r="J161" s="3">
+        <v>6</v>
+      </c>
+      <c r="K161" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="6">
         <f t="shared" ref="A162:A167" si="3">A161+1</f>
         <v>85</v>
@@ -6477,8 +7858,17 @@
       <c r="H162" s="8" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I162" t="s">
+        <v>574</v>
+      </c>
+      <c r="J162" s="3">
+        <v>6</v>
+      </c>
+      <c r="K162" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" s="6">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -6501,8 +7891,17 @@
       <c r="H163" s="8" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I163" t="s">
+        <v>574</v>
+      </c>
+      <c r="J163" s="3">
+        <v>6</v>
+      </c>
+      <c r="K163" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="6">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -6525,8 +7924,17 @@
       <c r="H164" s="8" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I164" t="s">
+        <v>574</v>
+      </c>
+      <c r="J164" s="3">
+        <v>6</v>
+      </c>
+      <c r="K164" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165" s="6">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -6549,8 +7957,17 @@
       <c r="H165" s="8" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I165" t="s">
+        <v>574</v>
+      </c>
+      <c r="J165" s="3">
+        <v>6</v>
+      </c>
+      <c r="K165" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -6573,8 +7990,17 @@
       <c r="H166" s="8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I166" t="s">
+        <v>574</v>
+      </c>
+      <c r="J166" s="3">
+        <v>6</v>
+      </c>
+      <c r="K166" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -6596,6 +8022,26 @@
       </c>
       <c r="H167" s="8" t="s">
         <v>326</v>
+      </c>
+      <c r="I167" t="s">
+        <v>574</v>
+      </c>
+      <c r="J167" s="3">
+        <v>6</v>
+      </c>
+      <c r="K167" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="I168" t="s">
+        <v>574</v>
+      </c>
+      <c r="J168" s="3">
+        <v>6</v>
+      </c>
+      <c r="K168" s="3">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6605,10 +8051,4 @@
     <ignoredError sqref="C106" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>